--- a/Data Structures/Useful Resources/Course Schedule.xlsx
+++ b/Data Structures/Useful Resources/Course Schedule.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9090" tabRatio="264"/>
   </bookViews>
   <sheets>
     <sheet name="Data Structures - Schedule" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -94,11 +94,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,7 +235,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -249,7 +249,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -262,7 +262,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -272,7 +272,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -291,7 +291,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="dd/mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="dd/mmm"/>
@@ -301,7 +301,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -310,7 +310,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -322,7 +322,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -331,7 +331,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -351,7 +351,7 @@
           <bgColor theme="4" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -392,9 +392,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office тема">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Оffice">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -432,9 +432,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Оffice">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,10 +466,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,10 +500,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Оffice">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -677,18 +675,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="59.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="11" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
@@ -696,7 +694,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="20" customFormat="1">
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
@@ -719,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -744,7 +742,7 @@
         <v>42423</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -769,7 +767,7 @@
         <v>42423</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -794,7 +792,7 @@
         <v>42425</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -819,7 +817,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -844,7 +842,7 @@
         <v>42432</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -869,7 +867,7 @@
         <v>42437</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -877,11 +875,11 @@
         <v>14</v>
       </c>
       <c r="C8" s="15">
-        <v>42432</v>
+        <v>42437</v>
       </c>
       <c r="D8" s="16">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>42432</v>
+        <v>42437</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>4</v>
@@ -891,10 +889,10 @@
       </c>
       <c r="G8" s="15">
         <f>Table13[[#This Row],[Date]]+7</f>
-        <v>42439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -902,11 +900,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="15">
-        <v>42437</v>
+        <v>42438</v>
       </c>
       <c r="D9" s="16">
         <f>Table13[[#This Row],[Date]]</f>
-        <v>42437</v>
+        <v>42438</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>4</v>
@@ -916,10 +914,10 @@
       </c>
       <c r="G9" s="15">
         <f>Table13[[#This Row],[Date]]+7</f>
-        <v>42444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -944,7 +942,7 @@
         <v>42446</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -969,7 +967,7 @@
         <v>42451</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -994,7 +992,7 @@
         <v>42453</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1019,7 +1017,7 @@
         <v>42458</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="12">
         <v>12</v>
       </c>
